--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Octubre.xlsx
@@ -231,43 +231,43 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Conciliación</t>
+          <t xml:space="preserve">Avenimiento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Incompetencia</t>
+          <t xml:space="preserve">Conciliación</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Mediación</t>
+          <t xml:space="preserve">Desistimiento</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">No Da Curso A La Solicitud</t>
+          <t xml:space="preserve">Incompetencia</t>
         </is>
       </c>
       <c r="B7" s="65">
@@ -277,11 +277,31 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
+          <t xml:space="preserve">Mediación</t>
+        </is>
+      </c>
+      <c r="B8" s="65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">No Da Curso A La Solicitud</t>
+        </is>
+      </c>
+      <c r="B9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
           <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
-      <c r="B8" s="65">
-        <v>13</v>
+      <c r="B10" s="65">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
